--- a/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.002_scores.xlsx
@@ -40,367 +40,364 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shortages</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>proud</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>support</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>contest</t>
+    <t>share</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>$</t>
   </si>
   <si>
-    <t>give</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>&amp;</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>;</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>my</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>at</t>
@@ -409,55 +406,58 @@
     <t>we</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>with</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>is</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>for</t>
+    <t>prices</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -937,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -984,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1034,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1084,13 +1084,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1134,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1184,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -1252,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1284,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1352,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1384,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8051948051948052</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7619047619047619</v>
+        <v>0.64</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1452,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.9375</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1484,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15">
-        <v>0.9310344827586207</v>
-      </c>
-      <c r="L15">
-        <v>27</v>
-      </c>
-      <c r="M15">
-        <v>27</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1534,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.925</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1584,13 +1584,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1634,13 +1634,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.9090909090909091</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7083333333333334</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1702,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6111111111111112</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.8888888888888888</v>
+        <v>0.8515625</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1784,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5450643776824035</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C21">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1802,31 +1802,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.8888888888888888</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>8</v>
-      </c>
-      <c r="M21">
-        <v>8</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,13 +1834,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.8823529411764706</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1884,13 +1884,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5263157894736842</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1902,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1934,13 +1934,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5172413793103449</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1952,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1984,38 +1984,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L25">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2034,13 +2034,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.8461538461538461</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2084,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3684210526315789</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2102,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.8461538461538461</v>
+        <v>0.82</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2134,13 +2134,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3684210526315789</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2152,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.8461538461538461</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2184,13 +2184,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3636363636363636</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.8431372549019608</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2234,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3625</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2252,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2284,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3333333333333333</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2302,606 +2302,462 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L31">
+        <v>86</v>
+      </c>
+      <c r="M31">
+        <v>86</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>0.7625</v>
+      </c>
+      <c r="L35">
+        <v>122</v>
+      </c>
+      <c r="M35">
+        <v>122</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K31">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L31">
+      <c r="K37">
+        <v>0.7519582245430809</v>
+      </c>
+      <c r="L37">
+        <v>288</v>
+      </c>
+      <c r="M37">
+        <v>288</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L40">
+        <v>67</v>
+      </c>
+      <c r="M40">
+        <v>67</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L41">
+        <v>61</v>
+      </c>
+      <c r="M41">
+        <v>61</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>10</v>
       </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C32">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>27</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>59</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L32">
-        <v>42</v>
-      </c>
-      <c r="M32">
-        <v>42</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>19</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L33">
-        <v>14</v>
-      </c>
-      <c r="M33">
-        <v>14</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.225</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>31</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35">
-        <v>0.8</v>
-      </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="M35">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L46">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>0.1545454545454545</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>93</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>11</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C37">
-        <v>18</v>
-      </c>
-      <c r="D37">
-        <v>18</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>168</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>25</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
+      <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K41">
-        <v>0.755868544600939</v>
-      </c>
-      <c r="L41">
-        <v>161</v>
-      </c>
-      <c r="M41">
-        <v>161</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
+      <c r="K47">
+        <v>0.6305084745762712</v>
+      </c>
+      <c r="L47">
+        <v>186</v>
+      </c>
+      <c r="M47">
+        <v>186</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K42">
-        <v>0.75</v>
-      </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="M42">
-        <v>15</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43">
-        <v>0.75</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="M43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="L44">
+      <c r="K48">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L48">
         <v>22</v>
       </c>
-      <c r="M44">
+      <c r="M48">
         <v>22</v>
       </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K45">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L45">
-        <v>19</v>
-      </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L46">
-        <v>8</v>
-      </c>
-      <c r="M46">
-        <v>8</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47">
-        <v>0.72</v>
-      </c>
-      <c r="L47">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>18</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48">
-        <v>0.7</v>
-      </c>
-      <c r="L48">
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <v>7</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -2912,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.7</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2938,21 +2794,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.7</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2964,21 +2820,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.6744186046511628</v>
+        <v>0.6</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2990,21 +2846,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.6712328767123288</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L52">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="M52">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3016,21 +2872,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.6527777777777778</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L53">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3042,21 +2898,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.6428571428571429</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3068,21 +2924,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.64</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3094,21 +2950,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.6363636363636364</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3120,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.631578947368421</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L57">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="M57">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3146,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.6195652173913043</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L58">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3172,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.6</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3198,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.5833333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3224,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.5714285714285714</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3250,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.5384615384615384</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3276,21 +3132,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.5142857142857142</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3302,21 +3158,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.5</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3328,47 +3184,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.5</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>16</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.4864864864864865</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3380,47 +3236,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0.4444444444444444</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>10</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K68">
-        <v>0.4166666666666667</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3432,15 +3288,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K69">
-        <v>0.3421052631578947</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L69">
         <v>13</v>
@@ -3458,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K70">
-        <v>0.3225806451612903</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3484,21 +3340,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K71">
-        <v>0.2222222222222222</v>
+        <v>0.07566462167689161</v>
       </c>
       <c r="L71">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M71">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3510,21 +3366,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>42</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K72">
-        <v>0.2058823529411765</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3536,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K73">
-        <v>0.1494252873563219</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3562,21 +3418,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K74">
-        <v>0.1044776119402985</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3588,21 +3444,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>60</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K75">
-        <v>0.1041666666666667</v>
+        <v>0.0599250936329588</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3614,125 +3470,125 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>86</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K76">
-        <v>0.0707070707070707</v>
+        <v>0.05863192182410423</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>184</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K77">
-        <v>0.06140350877192982</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L77">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>107</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K78">
-        <v>0.06015037593984962</v>
+        <v>0.05409582689335394</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>125</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K79">
-        <v>0.05909090909090909</v>
+        <v>0.05268490374873354</v>
       </c>
       <c r="L79">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N79">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O79">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>207</v>
+        <v>935</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K80">
-        <v>0.0564516129032258</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L80">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3744,177 +3600,177 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>117</v>
+        <v>847</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K81">
-        <v>0.05396825396825397</v>
+        <v>0.05243445692883895</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>298</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K82">
-        <v>0.04824561403508772</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>434</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K83">
-        <v>0.04761904761904762</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L83">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M83">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N83">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>200</v>
+        <v>860</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K84">
-        <v>0.0472636815920398</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>383</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K85">
-        <v>0.04568527918781726</v>
+        <v>0.0368701351904957</v>
       </c>
       <c r="L85">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="M85">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="N85">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>188</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K86">
-        <v>0.04390243902439024</v>
+        <v>0.03641092327698309</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>392</v>
+        <v>741</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K87">
-        <v>0.0430622009569378</v>
+        <v>0.0350109409190372</v>
       </c>
       <c r="L87">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3926,67 +3782,67 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>200</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K88">
-        <v>0.03682719546742209</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>340</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K89">
-        <v>0.03608247422680412</v>
+        <v>0.03177570093457944</v>
       </c>
       <c r="L89">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>187</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K90">
-        <v>0.0352112676056338</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L90">
         <v>15</v>
@@ -4004,99 +3860,99 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>411</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K91">
-        <v>0.02757793764988009</v>
+        <v>0.02959910078681154</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>811</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K92">
-        <v>0.02696871628910464</v>
+        <v>0.02622576966932725</v>
       </c>
       <c r="L92">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M92">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>902</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K93">
-        <v>0.02105263157894737</v>
+        <v>0.02622576966932725</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M93">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N93">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O93">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>930</v>
+        <v>854</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K94">
-        <v>0.01845018450184502</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="L94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4108,319 +3964,475 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>532</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K95">
-        <v>0.01801801801801802</v>
+        <v>0.02404526166902405</v>
       </c>
       <c r="L95">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>436</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K96">
-        <v>0.01694915254237288</v>
+        <v>0.02366626554352186</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="N96">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O96">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>1102</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K97">
-        <v>0.01547277936962751</v>
+        <v>0.02361872627583298</v>
       </c>
       <c r="L97">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M97">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N97">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O97">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>1718</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K98">
-        <v>0.01487414187643021</v>
+        <v>0.02296819787985866</v>
       </c>
       <c r="L98">
         <v>13</v>
       </c>
       <c r="M98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>861</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K99">
-        <v>0.01462904911180773</v>
+        <v>0.02199874292897549</v>
       </c>
       <c r="L99">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M99">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N99">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O99">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>1886</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K100">
-        <v>0.01455301455301455</v>
+        <v>0.02038161318300087</v>
       </c>
       <c r="L100">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="M100">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N100">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O100">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>474</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K101">
-        <v>0.01440329218106996</v>
+        <v>0.01843722563652327</v>
       </c>
       <c r="L101">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>479</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K102">
-        <v>0.01359516616314199</v>
+        <v>0.01775912173070714</v>
       </c>
       <c r="L102">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M102">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N102">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O102">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>1959</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K103">
-        <v>0.01253918495297806</v>
+        <v>0.01726144297905353</v>
       </c>
       <c r="L103">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="N103">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O103">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>630</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K104">
-        <v>0.01107754279959718</v>
+        <v>0.01554001554001554</v>
       </c>
       <c r="L104">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M104">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N104">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O104">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>982</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K105">
-        <v>0.008980115458627326</v>
+        <v>0.01503585473051122</v>
       </c>
       <c r="L105">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M105">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N105">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="O105">
-        <v>0.26</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>1545</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K106">
+        <v>0.01469507714915503</v>
+      </c>
+      <c r="L106">
+        <v>20</v>
+      </c>
+      <c r="M106">
+        <v>22</v>
+      </c>
+      <c r="N106">
+        <v>0.91</v>
+      </c>
+      <c r="O106">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K107">
+        <v>0.01348547717842324</v>
+      </c>
+      <c r="L107">
+        <v>13</v>
+      </c>
+      <c r="M107">
+        <v>17</v>
+      </c>
+      <c r="N107">
+        <v>0.76</v>
+      </c>
+      <c r="O107">
+        <v>0.24</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K108">
+        <v>0.01346153846153846</v>
+      </c>
+      <c r="L108">
+        <v>14</v>
+      </c>
+      <c r="M108">
+        <v>14</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K109">
+        <v>0.01301115241635688</v>
+      </c>
+      <c r="L109">
+        <v>28</v>
+      </c>
+      <c r="M109">
+        <v>34</v>
+      </c>
+      <c r="N109">
+        <v>0.82</v>
+      </c>
+      <c r="O109">
+        <v>0.18</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K110">
+        <v>0.01205857019810508</v>
+      </c>
+      <c r="L110">
+        <v>14</v>
+      </c>
+      <c r="M110">
+        <v>14</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K111">
+        <v>0.01044713748432929</v>
+      </c>
+      <c r="L111">
+        <v>25</v>
+      </c>
+      <c r="M111">
+        <v>26</v>
+      </c>
+      <c r="N111">
+        <v>0.96</v>
+      </c>
+      <c r="O111">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K106">
-        <v>0.008519701810436636</v>
-      </c>
-      <c r="L106">
-        <v>8</v>
-      </c>
-      <c r="M106">
-        <v>8</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>931</v>
+      <c r="K112">
+        <v>0.00845599749451926</v>
+      </c>
+      <c r="L112">
+        <v>27</v>
+      </c>
+      <c r="M112">
+        <v>35</v>
+      </c>
+      <c r="N112">
+        <v>0.77</v>
+      </c>
+      <c r="O112">
+        <v>0.23</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
